--- a/data_exerc/bd_ihs.xlsx
+++ b/data_exerc/bd_ihs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rprimi/Dropbox (Personal)/Ciencia_de_dados_stat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rprimi/Dropbox (Personal)/Ciencia_de_dados_stat/ds_stat/data_exerc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993BBD1E-F530-0A4A-BE07-B40AF35B3D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43AE2A-F659-7040-AC3B-D25A46A339F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="620" windowWidth="25180" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="620" windowWidth="25180" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bd_ihs" sheetId="5" r:id="rId1"/>
@@ -1017,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90486067-58F6-524A-8ECB-7A5B829ADF02}">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2:R78"/>
     </sheetView>
   </sheetViews>
@@ -25939,8 +25939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25984,273 +25984,273 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>181</v>
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F2" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F3" s="6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="F4" s="6">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="F5" s="6">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="F6" s="6">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F7" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F8" s="6">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="F9" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F10" s="6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F11" s="6">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>179</v>
@@ -26259,24 +26259,24 @@
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F12" s="6">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>142</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>179</v>
@@ -26285,50 +26285,50 @@
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="F13" s="6">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>142</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F14" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>177</v>
@@ -26337,102 +26337,102 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F15" s="6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>133</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F16" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F17" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>181</v>
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
       </c>
       <c r="D18" s="5">
         <v>1</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F18" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
@@ -26441,290 +26441,284 @@
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="F19" s="6">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>133</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D20" s="5">
         <v>1</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="F20" s="6">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>181</v>
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="F21" s="6">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="F22" s="6">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="F23" s="6">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="F24" s="6">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="F25" s="6">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F26" s="6">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>176</v>
+        <v>40</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="F27" s="6">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>179</v>
+        <v>58</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F28" s="6">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>176</v>
+        <v>61</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F29" s="6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>176</v>
@@ -26733,50 +26727,56 @@
         <v>1</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="F30" s="6">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>156</v>
       </c>
+      <c r="H30" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="I30" s="5" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D31" s="5">
         <v>1</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F31" s="6">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>133</v>
+        <v>156</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
         <v>176</v>
@@ -26785,24 +26785,24 @@
         <v>1</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F32" s="6">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>156</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
         <v>176</v>
@@ -26811,50 +26811,50 @@
         <v>1</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F33" s="6">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>156</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F34" s="6">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
         <v>176</v>
@@ -26863,24 +26863,24 @@
         <v>1</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F35" s="6">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>156</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
         <v>176</v>
@@ -26889,102 +26889,102 @@
         <v>1</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F36" s="6">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="I36" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F37" s="6">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D38" s="5">
         <v>1</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F38" s="6">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D39" s="5">
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F39" s="6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>133</v>
+        <v>156</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I39">
-    <sortCondition ref="A2:A39"/>
+    <sortCondition ref="G2:G39"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
